--- a/semana/semana_completa_18.xlsx
+++ b/semana/semana_completa_18.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9368EFF-3095-47F7-896F-1DE2E9D9D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE06976-9E13-4BAE-80BB-010EBA8F7DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Detalle_VOK" sheetId="3" r:id="rId3"/>
     <sheet name="Carta_cr" sheetId="4" r:id="rId4"/>
     <sheet name="Detalle_cr" sheetId="5" r:id="rId5"/>
+    <sheet name="Evidencia_ns" sheetId="6" r:id="rId6"/>
+    <sheet name="Evidencia_vok" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="950">
   <si>
     <t>c</t>
   </si>
@@ -2765,6 +2767,126 @@
   </si>
   <si>
     <t>E-WOL-N0096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUTAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V MALOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INI RUTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN RUTA </t>
+  </si>
+  <si>
+    <t>Observacion</t>
+  </si>
+  <si>
+    <t>5 a 10 min</t>
+  </si>
+  <si>
+    <t>Puntual</t>
+  </si>
+  <si>
+    <t>11 a 15 min</t>
+  </si>
+  <si>
+    <t>mayor a 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un viaje llega a 6 minutos tarde y el otro mas de 20 </t>
+  </si>
+  <si>
+    <t>16 a 20 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un viaje inicia puntial y el otro 14 minutos llegando mas de 20minutos </t>
+  </si>
+  <si>
+    <t>No registra el tiempo de llegada real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llega 6:20 am </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 a 16 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">llegada  a planta un viaje a 10 min y el otro mas de 20 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">llega a planta arriba de 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no registra correctamente pero llega tarde arriba de 20 minutos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">llega 3 minutos tarde </t>
+  </si>
+  <si>
+    <t>No empieza en p 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 a mas 20 minutos </t>
+  </si>
+  <si>
+    <t>Varios viajes inicia en punto 2, 1 viajes llega mas de 20 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llego 5 minutos tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">un viaje inicia temprano pero llegan tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">un viaje inicia tarde y otro no registra la hora real de llegada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">llega temprano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">un viaje inica 3 minutos tarde  y llega 15 minutos tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">en un viaje no registra la hora real de llegada y llega temprano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">un vijae llega mas de 30 minutos </t>
+  </si>
+  <si>
+    <t>un viaje inicia tarde 12 min y llegar tarde igual 20 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo los viajes inician arriba de 30 minutos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido y toca punto 1 tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">toca punto 1 y se va a otro lado he inicia tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en putno 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">un recorrido no registro la hora real del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">un viaje inicia temprano igual llega tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">en 2 viajes llegan a planta arriba de 15 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">un viaje inicia temprano y llega tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">llega mas de 40 minutos </t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2935,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2940,8 +3062,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5E6A2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7E36F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2973,12 +3113,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3066,6 +3221,13 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3403,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34531,4 +34693,1712 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD0B79E-4575-479A-A30D-AB059D257DD0}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>916</v>
+      </c>
+      <c r="E2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>917</v>
+      </c>
+      <c r="E3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>917</v>
+      </c>
+      <c r="E4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>917</v>
+      </c>
+      <c r="E5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>917</v>
+      </c>
+      <c r="E6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>917</v>
+      </c>
+      <c r="E7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>917</v>
+      </c>
+      <c r="E8" t="s">
+        <v>919</v>
+      </c>
+      <c r="F8" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>919</v>
+      </c>
+      <c r="E9" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>919</v>
+      </c>
+      <c r="E10" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>918</v>
+      </c>
+      <c r="E11" t="s">
+        <v>919</v>
+      </c>
+      <c r="F11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>921</v>
+      </c>
+      <c r="E12" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>917</v>
+      </c>
+      <c r="E13" t="s">
+        <v>923</v>
+      </c>
+      <c r="F13" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>917</v>
+      </c>
+      <c r="E14" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>925</v>
+      </c>
+      <c r="E15" t="s">
+        <v>919</v>
+      </c>
+      <c r="F15" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>917</v>
+      </c>
+      <c r="E16" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>917</v>
+      </c>
+      <c r="E17" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>917</v>
+      </c>
+      <c r="E18" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>916</v>
+      </c>
+      <c r="E19" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>917</v>
+      </c>
+      <c r="E20" t="s">
+        <v>921</v>
+      </c>
+      <c r="F20" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>917</v>
+      </c>
+      <c r="E21" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>916</v>
+      </c>
+      <c r="E22" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>917</v>
+      </c>
+      <c r="E23" t="s">
+        <v>919</v>
+      </c>
+      <c r="F23" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>917</v>
+      </c>
+      <c r="E24" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>917</v>
+      </c>
+      <c r="E25" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>917</v>
+      </c>
+      <c r="E26" t="s">
+        <v>923</v>
+      </c>
+      <c r="F26" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>917</v>
+      </c>
+      <c r="E27" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>918</v>
+      </c>
+      <c r="E28" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>917</v>
+      </c>
+      <c r="E29" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>917</v>
+      </c>
+      <c r="E30" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>917</v>
+      </c>
+      <c r="E31" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>917</v>
+      </c>
+      <c r="E32" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>917</v>
+      </c>
+      <c r="E33" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>917</v>
+      </c>
+      <c r="E34" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>918</v>
+      </c>
+      <c r="E35" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>930</v>
+      </c>
+      <c r="E36" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>918</v>
+      </c>
+      <c r="E37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>916</v>
+      </c>
+      <c r="E38" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>917</v>
+      </c>
+      <c r="E39" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>917</v>
+      </c>
+      <c r="E40" t="s">
+        <v>916</v>
+      </c>
+      <c r="F40" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>917</v>
+      </c>
+      <c r="E41" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>917</v>
+      </c>
+      <c r="E42" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>916</v>
+      </c>
+      <c r="E43" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>917</v>
+      </c>
+      <c r="E44" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>930</v>
+      </c>
+      <c r="E45" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>917</v>
+      </c>
+      <c r="E46" t="s">
+        <v>923</v>
+      </c>
+      <c r="F46" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>930</v>
+      </c>
+      <c r="E47" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>918</v>
+      </c>
+      <c r="E48" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>919</v>
+      </c>
+      <c r="E49" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>917</v>
+      </c>
+      <c r="E50" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>917</v>
+      </c>
+      <c r="E51" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>917</v>
+      </c>
+      <c r="E52" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>916</v>
+      </c>
+      <c r="E53" t="s">
+        <v>918</v>
+      </c>
+      <c r="F53" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>917</v>
+      </c>
+      <c r="E54" t="s">
+        <v>918</v>
+      </c>
+      <c r="F54" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>916</v>
+      </c>
+      <c r="E55" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>916</v>
+      </c>
+      <c r="E56" t="s">
+        <v>923</v>
+      </c>
+      <c r="F56" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>917</v>
+      </c>
+      <c r="E57" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>917</v>
+      </c>
+      <c r="E58" t="s">
+        <v>923</v>
+      </c>
+      <c r="F58" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>916</v>
+      </c>
+      <c r="E59" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>916</v>
+      </c>
+      <c r="E60" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>916</v>
+      </c>
+      <c r="E61" t="s">
+        <v>919</v>
+      </c>
+      <c r="F61" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>917</v>
+      </c>
+      <c r="E62" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>917</v>
+      </c>
+      <c r="E63" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>917</v>
+      </c>
+      <c r="E64" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>917</v>
+      </c>
+      <c r="E65" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>930</v>
+      </c>
+      <c r="E66" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>930</v>
+      </c>
+      <c r="E67" t="s">
+        <v>916</v>
+      </c>
+      <c r="F67" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>917</v>
+      </c>
+      <c r="E68" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>916</v>
+      </c>
+      <c r="E69" t="s">
+        <v>916</v>
+      </c>
+      <c r="F69" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>918</v>
+      </c>
+      <c r="E70" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>916</v>
+      </c>
+      <c r="E71" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>917</v>
+      </c>
+      <c r="E72" t="s">
+        <v>919</v>
+      </c>
+      <c r="F72" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>919</v>
+      </c>
+      <c r="E73" t="s">
+        <v>921</v>
+      </c>
+      <c r="F73" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>919</v>
+      </c>
+      <c r="E74" t="s">
+        <v>919</v>
+      </c>
+      <c r="F74" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>919</v>
+      </c>
+      <c r="E75" t="s">
+        <v>918</v>
+      </c>
+      <c r="F75" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>930</v>
+      </c>
+      <c r="E76" t="s">
+        <v>916</v>
+      </c>
+      <c r="F76" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>916</v>
+      </c>
+      <c r="E77" t="s">
+        <v>916</v>
+      </c>
+      <c r="F77" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>917</v>
+      </c>
+      <c r="E78" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>917</v>
+      </c>
+      <c r="E79" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>916</v>
+      </c>
+      <c r="E80" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>918</v>
+      </c>
+      <c r="E81" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>323</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>917</v>
+      </c>
+      <c r="E82" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>917</v>
+      </c>
+      <c r="E83" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
+        <v>378</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>917</v>
+      </c>
+      <c r="E84" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>917</v>
+      </c>
+      <c r="E85" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>407</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>919</v>
+      </c>
+      <c r="E86" t="s">
+        <v>916</v>
+      </c>
+      <c r="F86" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>416</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>916</v>
+      </c>
+      <c r="E87" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>419</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>917</v>
+      </c>
+      <c r="E88" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>917</v>
+      </c>
+      <c r="E89" t="s">
+        <v>916</v>
+      </c>
+      <c r="F89" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>917</v>
+      </c>
+      <c r="E90" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>430</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>919</v>
+      </c>
+      <c r="E91" t="s">
+        <v>919</v>
+      </c>
+      <c r="F91" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>917</v>
+      </c>
+      <c r="E92" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" t="s">
+        <v>431</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>916</v>
+      </c>
+      <c r="E93" t="s">
+        <v>919</v>
+      </c>
+      <c r="F93" t="s">
+        <v>949</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C93">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89262191-E814-4911-B966-779E3723FB76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/semana/semana_completa_18.xlsx
+++ b/semana/semana_completa_18.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE06976-9E13-4BAE-80BB-010EBA8F7DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7971F6E7-A88C-4C7F-80EF-6BBFB8862A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="994">
   <si>
     <t>c</t>
   </si>
@@ -2769,19 +2769,19 @@
     <t>E-WOL-N0096</t>
   </si>
   <si>
-    <t xml:space="preserve">PLANTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUTAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">V MALOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INI RUTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN RUTA </t>
+    <t>PLANTA</t>
+  </si>
+  <si>
+    <t>RUTAS</t>
+  </si>
+  <si>
+    <t>V MALOS</t>
+  </si>
+  <si>
+    <t>INI RUTA</t>
+  </si>
+  <si>
+    <t>FIN RUTA</t>
   </si>
   <si>
     <t>Observacion</t>
@@ -2799,101 +2799,233 @@
     <t>mayor a 21</t>
   </si>
   <si>
-    <t xml:space="preserve">un viaje llega a 6 minutos tarde y el otro mas de 20 </t>
+    <t>ZUAZUA PERIFERICA</t>
+  </si>
+  <si>
+    <t>un viaje llega a 6 minutos tarde y el otro mas de 20</t>
   </si>
   <si>
     <t>16 a 20 min</t>
   </si>
   <si>
-    <t xml:space="preserve">un viaje inicia puntial y el otro 14 minutos llegando mas de 20minutos </t>
+    <t>un viaje inicia puntial y el otro 14 minutos llegando mas de 20minutos</t>
   </si>
   <si>
     <t>No registra el tiempo de llegada real</t>
   </si>
   <si>
-    <t xml:space="preserve">llega 6:20 am </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 a 16 min </t>
-  </si>
-  <si>
-    <t xml:space="preserve">llegada  a planta un viaje a 10 min y el otro mas de 20 min </t>
-  </si>
-  <si>
-    <t xml:space="preserve">llega a planta arriba de 19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no registra correctamente pero llega tarde arriba de 20 minutos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">llega 3 minutos tarde </t>
+    <t>llega 6:20 am</t>
+  </si>
+  <si>
+    <t>4 a 16 min</t>
+  </si>
+  <si>
+    <t>llegada a planta un viaje a 10 min y el otro mas de 20 min</t>
+  </si>
+  <si>
+    <t>llega a planta arriba de 19</t>
+  </si>
+  <si>
+    <t>no registra correctamente pero llega tarde arriba de 20 minutos</t>
+  </si>
+  <si>
+    <t>llega 3 minutos tarde</t>
   </si>
   <si>
     <t>No empieza en p 1</t>
   </si>
   <si>
-    <t xml:space="preserve">5 a mas 20 minutos </t>
+    <t>5 a mas 20 minutos</t>
   </si>
   <si>
     <t>Varios viajes inicia en punto 2, 1 viajes llega mas de 20 minutos</t>
   </si>
   <si>
-    <t xml:space="preserve">llego 5 minutos tarde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">un viaje inicia temprano pero llegan tarde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">un viaje inicia tarde y otro no registra la hora real de llegada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">llega temprano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">un viaje inica 3 minutos tarde  y llega 15 minutos tarde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">en un viaje no registra la hora real de llegada y llega temprano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">un vijae llega mas de 30 minutos </t>
+    <t>llego 5 minutos tarde</t>
+  </si>
+  <si>
+    <t>un viaje inicia temprano pero llegan tarde</t>
+  </si>
+  <si>
+    <t>un viaje inicia tarde y otro no registra la hora real de llegada</t>
+  </si>
+  <si>
+    <t>llega temprano</t>
+  </si>
+  <si>
+    <t>un viaje inica 3 minutos tarde y llega 15 minutos tarde</t>
+  </si>
+  <si>
+    <t>ZUAZUA 3 12 HRS</t>
+  </si>
+  <si>
+    <t>en un viaje no registra la hora real de llegada y llega temprano</t>
+  </si>
+  <si>
+    <t>un vijae llega mas de 30 minutos</t>
   </si>
   <si>
     <t>un viaje inicia tarde 12 min y llegar tarde igual 20 min</t>
   </si>
   <si>
-    <t xml:space="preserve">todo los viajes inician arriba de 30 minutos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inicia a mediados del recorrido y toca punto 1 tarde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">toca punto 1 y se va a otro lado he inicia tarde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inicia en putno 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">un recorrido no registro la hora real del recorrido </t>
-  </si>
-  <si>
-    <t xml:space="preserve">un viaje inicia temprano igual llega tarde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">en 2 viajes llegan a planta arriba de 15 min </t>
-  </si>
-  <si>
-    <t xml:space="preserve">un viaje inicia temprano y llega tarde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">llega mas de 40 minutos </t>
+    <t>todo los viajes inician arriba de 30 minutos</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido y toca punto 1 tarde</t>
+  </si>
+  <si>
+    <t>toca punto 1 y se va a otro lado he inicia tarde</t>
+  </si>
+  <si>
+    <t>inicia en putno 2</t>
+  </si>
+  <si>
+    <t>un recorrido no registro la hora real del recorrido</t>
+  </si>
+  <si>
+    <t>un viaje inicia temprano igual llega tarde</t>
+  </si>
+  <si>
+    <t>en 2 viajes llegan a planta arriba de 15 min</t>
+  </si>
+  <si>
+    <t>un viaje inicia temprano y llega tarde</t>
+  </si>
+  <si>
+    <t>llega mas de 40 minutos</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>inicia en punto 2 o 3</t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido , error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t>inicia tarde y no registra el punto 1</t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto 1, inicia tarde y no registra punto 1</t>
+  </si>
+  <si>
+    <t>no realiza alto total en punto 1 y no lo registra</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido</t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto 1 y final</t>
+  </si>
+  <si>
+    <t>inicia en punto 2</t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto 1, no realiza alto total en punto 1</t>
+  </si>
+  <si>
+    <t>unidad confirmada no realiza recorrido, error de sistema no registra punto 1 y final</t>
+  </si>
+  <si>
+    <t>inicia tarde y no registra punto 1</t>
+  </si>
+  <si>
+    <t>llegada tarde y no registra punto final, unidad confirmada no realiza recorrido, error de sistema no registra punto final</t>
+  </si>
+  <si>
+    <t>llega tarde a planta y no registra punto final, error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto 1 , inicia tarde , unidad confirmada no realiza recorrido</t>
+  </si>
+  <si>
+    <t>unidad confirmada no realiza recorrido programado, error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t>unidad confrimada no realiza recorrido, no realiza alto total en punto 1 no registrando punto 1</t>
+  </si>
+  <si>
+    <t>inicia tarde y no registra el punto1, no realiza alto total en punto 1, inicia a mediados del recorrido</t>
+  </si>
+  <si>
+    <t>unidad confirmada no realiza recorrido , inicia a mediados del recorrido</t>
+  </si>
+  <si>
+    <t>inicia tarde y no registra punto 1, error de sistema no registra punto final</t>
+  </si>
+  <si>
+    <t>inicia tarde y no registra punto 1, error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido, error de sistema no registra punto 1 y final</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido, error de sistema no registro el punto 1 y final</t>
+  </si>
+  <si>
+    <t>no pasa por el punto 1, error de sistema no realiza el punto final</t>
+  </si>
+  <si>
+    <t>no pasa por el punto 1 iniciando en punto 3</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido, inicia en punto 2</t>
+  </si>
+  <si>
+    <t>error no registra punto 1, no realiza alto total punto 1</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido , no realiza alto total en punto 1</t>
+  </si>
+  <si>
+    <t>no realiza alto en punto 1 y no registra punto 1</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido, error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t>inicia tarde y no registra punto 1, no realiza alto total y error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t>VILLAS DEL ARCO JARAL-SALINAS</t>
+  </si>
+  <si>
+    <t>inicio a mediados del recorrido y tarde no registra punto 1 ni final , error de sistme no registro punto 1</t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto 1, unidad confirmada no realiza recorrido programado</t>
+  </si>
+  <si>
+    <t>inicia en punto 3</t>
+  </si>
+  <si>
+    <t>unidad confirmada no realiza recorrido</t>
+  </si>
+  <si>
+    <t>inicia a mediados del recorrido, error de sistema no registra punto final</t>
+  </si>
+  <si>
+    <t>no realiza alto total en punto 1, inicia tarde y error de sistrma no lo registra</t>
+  </si>
+  <si>
+    <t>inicia tarde el recorrido y no registra el punto 1, inicia a mediados del recorrido, error de sistema no registra punto 1 y final</t>
+  </si>
+  <si>
+    <t>error de sistema no registra el punto 1 y final</t>
+  </si>
+  <si>
+    <t>inicia a mediados , error de sistema no registra punto 1 y final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2934,8 +3066,33 @@
       <name val="Aptos ExtraBold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos ExtraBold"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3065,23 +3222,149 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB5E6A2"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7E36F"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BE7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDD82"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC07C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFECF7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCA377"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCB279"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8671"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB9975"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBDC81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEC87E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE082"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8170"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCB079"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED17F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCAF79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB77A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDA81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE383"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8C72"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3128,12 +3411,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF46B1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3221,13 +3513,39 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34699,8 +35017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD0B79E-4575-479A-A30D-AB059D257DD0}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34722,1683 +35040,3692 @@
       <c r="C1" s="35" t="s">
         <v>912</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="36" t="s">
         <v>913</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="36" t="s">
         <v>914</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="36" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="38">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>916</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="36" t="s">
         <v>916</v>
       </c>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="36" t="s">
         <v>918</v>
       </c>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="38">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="36" t="s">
         <v>918</v>
       </c>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="36" t="s">
         <v>916</v>
       </c>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="38">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="36" t="s">
         <v>916</v>
       </c>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="36" t="s">
         <v>919</v>
       </c>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="36" t="s">
+        <v>920</v>
+      </c>
+      <c r="C8" s="40">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="F8" t="s">
-        <v>920</v>
+      <c r="F8" s="36" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="38">
+        <v>1</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="E9" t="s">
-        <v>921</v>
-      </c>
+      <c r="E9" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="38">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="36" t="s">
         <v>919</v>
       </c>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>918</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="36" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="38">
+        <v>1</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="28" t="s">
+      <c r="E12" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>921</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B13" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="38">
+        <v>1</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="40">
+        <v>2</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="38">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="40">
+        <v>2</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E13" t="s">
-        <v>923</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E16" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="38">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="38">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="38">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="41">
+        <v>4</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="38">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="40">
+        <v>2</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="41">
+        <v>4</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="38">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="38">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="38">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E26" s="36" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14">
+      <c r="F26" s="36" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="38">
+        <v>1</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="40">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D28" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="43">
+        <v>3</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E29" s="36" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>925</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="38">
+        <v>1</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="38">
+        <v>1</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E31" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="F15" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16">
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="40">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D32" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E32" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="40">
+        <v>2</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E33" s="36" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="38">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E34" s="36" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="38">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="38">
+        <v>1</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="40">
+        <v>2</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="40">
+        <v>2</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E39" s="36" t="s">
+        <v>932</v>
+      </c>
+      <c r="F39" s="39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="44">
+        <v>6</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="38">
+        <v>1</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F41" s="39"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="38">
+        <v>1</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E42" s="36" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="38">
+        <v>1</v>
+      </c>
+      <c r="D43" s="36" t="s">
         <v>916</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E43" s="36" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20">
+      <c r="F43" s="39"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="38">
+        <v>1</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="38">
+        <v>1</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F45" s="39"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="38">
+        <v>1</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="38">
+        <v>1</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F47" s="39"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="40">
+        <v>2</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F48" s="39"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="38">
+        <v>1</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F49" s="39"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="38">
+        <v>1</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F50" s="39"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="40">
+        <v>2</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F51" s="39"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="38">
+        <v>1</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F52" s="39"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="40">
+        <v>2</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="43">
+        <v>3</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="40">
+        <v>2</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F55" s="39"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="38">
+        <v>1</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="40">
+        <v>2</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F57" s="39"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="38">
+        <v>1</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="38">
+        <v>1</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F59" s="39"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="38">
+        <v>1</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F60" s="39"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="43">
+        <v>3</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="38">
+        <v>1</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="F62" s="39"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="38">
+        <v>1</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F63" s="39"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="38">
+        <v>1</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F64" s="39"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>939</v>
+      </c>
+      <c r="C65" s="38">
+        <v>1</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F65" s="39"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" s="38">
+        <v>1</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F66" s="39"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="40">
+        <v>2</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="45">
+        <v>5</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F68" s="39"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="43">
+        <v>3</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="38">
+        <v>1</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F70" s="39"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="40">
+        <v>2</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F71" s="39"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="43">
+        <v>3</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="45">
+        <v>5</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="40">
+        <v>2</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="38">
+        <v>1</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" s="38">
+        <v>1</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" s="40">
+        <v>2</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="43">
+        <v>3</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F78" s="39"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="38">
+        <v>1</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F79" s="39"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" s="40">
+        <v>2</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F80" s="39"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="38">
+        <v>1</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F81" s="39"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C82" s="38">
+        <v>1</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F82" s="39"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="38">
+        <v>1</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F83" s="39"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C84" s="40">
+        <v>2</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F84" s="39"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C85" s="40">
+        <v>2</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F85" s="39"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C86" s="40">
+        <v>2</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C87" s="46">
+        <v>8</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="F87" s="39"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C88" s="38">
+        <v>1</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F88" s="39"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="47">
+        <v>10</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="38">
+        <v>1</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="F90" s="39"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="C91" s="41">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D91" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="41">
+        <v>4</v>
+      </c>
+      <c r="D92" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="E20" t="s">
-        <v>921</v>
-      </c>
-      <c r="F20" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>917</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E92" s="36" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F92" s="39"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C93" s="38">
+        <v>1</v>
+      </c>
+      <c r="D93" s="36" t="s">
         <v>916</v>
       </c>
-      <c r="E22" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>917</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="E93" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="F23" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>917</v>
-      </c>
-      <c r="E24" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>917</v>
-      </c>
-      <c r="E25" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>917</v>
-      </c>
-      <c r="E26" t="s">
-        <v>923</v>
-      </c>
-      <c r="F26" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>917</v>
-      </c>
-      <c r="E27" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>918</v>
-      </c>
-      <c r="E28" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>917</v>
-      </c>
-      <c r="E29" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>917</v>
-      </c>
-      <c r="E30" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>917</v>
-      </c>
-      <c r="E31" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>917</v>
-      </c>
-      <c r="E32" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>917</v>
-      </c>
-      <c r="E33" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>917</v>
-      </c>
-      <c r="E34" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>918</v>
-      </c>
-      <c r="E35" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>930</v>
-      </c>
-      <c r="E36" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>918</v>
-      </c>
-      <c r="E37" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>916</v>
-      </c>
-      <c r="E38" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>917</v>
-      </c>
-      <c r="E39" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>917</v>
-      </c>
-      <c r="E40" t="s">
-        <v>916</v>
-      </c>
-      <c r="F40" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>917</v>
-      </c>
-      <c r="E41" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>917</v>
-      </c>
-      <c r="E42" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>916</v>
-      </c>
-      <c r="E43" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>917</v>
-      </c>
-      <c r="E44" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>930</v>
-      </c>
-      <c r="E45" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>917</v>
-      </c>
-      <c r="E46" t="s">
-        <v>923</v>
-      </c>
-      <c r="F46" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>930</v>
-      </c>
-      <c r="E47" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>918</v>
-      </c>
-      <c r="E48" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>919</v>
-      </c>
-      <c r="E49" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>917</v>
-      </c>
-      <c r="E50" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>917</v>
-      </c>
-      <c r="E51" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>917</v>
-      </c>
-      <c r="E52" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>916</v>
-      </c>
-      <c r="E53" t="s">
-        <v>918</v>
-      </c>
-      <c r="F53" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>917</v>
-      </c>
-      <c r="E54" t="s">
-        <v>918</v>
-      </c>
-      <c r="F54" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>916</v>
-      </c>
-      <c r="E55" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>916</v>
-      </c>
-      <c r="E56" t="s">
-        <v>923</v>
-      </c>
-      <c r="F56" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>917</v>
-      </c>
-      <c r="E57" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>226</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>917</v>
-      </c>
-      <c r="E58" t="s">
-        <v>923</v>
-      </c>
-      <c r="F58" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" t="s">
-        <v>227</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>916</v>
-      </c>
-      <c r="E59" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>916</v>
-      </c>
-      <c r="E60" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" t="s">
-        <v>241</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>916</v>
-      </c>
-      <c r="E61" t="s">
-        <v>919</v>
-      </c>
-      <c r="F61" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>917</v>
-      </c>
-      <c r="E62" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>917</v>
-      </c>
-      <c r="E63" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>917</v>
-      </c>
-      <c r="E64" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" t="s">
-        <v>260</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>917</v>
-      </c>
-      <c r="E65" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" t="s">
-        <v>262</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>930</v>
-      </c>
-      <c r="E66" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>263</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>930</v>
-      </c>
-      <c r="E67" t="s">
-        <v>916</v>
-      </c>
-      <c r="F67" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>264</v>
-      </c>
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68" t="s">
-        <v>917</v>
-      </c>
-      <c r="E68" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69" t="s">
-        <v>916</v>
-      </c>
-      <c r="E69" t="s">
-        <v>916</v>
-      </c>
-      <c r="F69" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s">
-        <v>270</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>918</v>
-      </c>
-      <c r="E70" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>916</v>
-      </c>
-      <c r="E71" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72" t="s">
-        <v>917</v>
-      </c>
-      <c r="E72" t="s">
-        <v>919</v>
-      </c>
-      <c r="F72" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73" t="s">
-        <v>919</v>
-      </c>
-      <c r="E73" t="s">
-        <v>921</v>
-      </c>
-      <c r="F73" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s">
-        <v>919</v>
-      </c>
-      <c r="E74" t="s">
-        <v>919</v>
-      </c>
-      <c r="F74" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" t="s">
-        <v>279</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>919</v>
-      </c>
-      <c r="E75" t="s">
-        <v>918</v>
-      </c>
-      <c r="F75" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" t="s">
-        <v>284</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>930</v>
-      </c>
-      <c r="E76" t="s">
-        <v>916</v>
-      </c>
-      <c r="F76" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" t="s">
-        <v>285</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>916</v>
-      </c>
-      <c r="E77" t="s">
-        <v>916</v>
-      </c>
-      <c r="F77" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78" t="s">
-        <v>917</v>
-      </c>
-      <c r="E78" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" t="s">
-        <v>287</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>917</v>
-      </c>
-      <c r="E79" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" t="s">
-        <v>291</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>916</v>
-      </c>
-      <c r="E80" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" t="s">
-        <v>299</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>918</v>
-      </c>
-      <c r="E81" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>323</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>917</v>
-      </c>
-      <c r="E82" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" t="s">
-        <v>332</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>917</v>
-      </c>
-      <c r="E83" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" t="s">
-        <v>378</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s">
-        <v>917</v>
-      </c>
-      <c r="E84" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" t="s">
-        <v>403</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s">
-        <v>917</v>
-      </c>
-      <c r="E85" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B86" t="s">
-        <v>407</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s">
-        <v>919</v>
-      </c>
-      <c r="E86" t="s">
-        <v>916</v>
-      </c>
-      <c r="F86" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" t="s">
-        <v>416</v>
-      </c>
-      <c r="C87">
-        <v>8</v>
-      </c>
-      <c r="D87" t="s">
-        <v>916</v>
-      </c>
-      <c r="E87" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" t="s">
-        <v>419</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>917</v>
-      </c>
-      <c r="E88" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89">
-        <v>10</v>
-      </c>
-      <c r="D89" t="s">
-        <v>917</v>
-      </c>
-      <c r="E89" t="s">
-        <v>916</v>
-      </c>
-      <c r="F89" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>917</v>
-      </c>
-      <c r="E90" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" t="s">
-        <v>430</v>
-      </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-      <c r="D91" t="s">
-        <v>919</v>
-      </c>
-      <c r="E91" t="s">
-        <v>919</v>
-      </c>
-      <c r="F91" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-      <c r="D92" t="s">
-        <v>917</v>
-      </c>
-      <c r="E92" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B93" t="s">
-        <v>431</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>916</v>
-      </c>
-      <c r="E93" t="s">
-        <v>919</v>
-      </c>
-      <c r="F93" t="s">
-        <v>949</v>
+      <c r="F93" s="36" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C93">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89262191-E814-4911-B966-779E3723FB76}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D147"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="48">
+        <v>7</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="49">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="50">
+        <v>2</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="51">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="51">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="51">
+        <v>5</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="52">
+        <v>4</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="53">
+        <v>8</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="52">
+        <v>4</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="52">
+        <v>4</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="52">
+        <v>4</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="49">
+        <v>3</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="49">
+        <v>3</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="48">
+        <v>7</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="51">
+        <v>5</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="49">
+        <v>3</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="50">
+        <v>2</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="50">
+        <v>2</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="50">
+        <v>2</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="50">
+        <v>2</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="49">
+        <v>3</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="50">
+        <v>2</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="52">
+        <v>4</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="51">
+        <v>5</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="53">
+        <v>8</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="52">
+        <v>4</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="52">
+        <v>4</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="51">
+        <v>5</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="49">
+        <v>3</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="52">
+        <v>4</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="52">
+        <v>4</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="50">
+        <v>2</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="50">
+        <v>2</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="50">
+        <v>2</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="53">
+        <v>8</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="54">
+        <v>6</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="54">
+        <v>6</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="51">
+        <v>5</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="50">
+        <v>2</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="51">
+        <v>5</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="49">
+        <v>3</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="50">
+        <v>2</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
+      <c r="A44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="50">
+        <v>2</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
+      <c r="A45" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="51">
+        <v>5</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="52">
+        <v>4</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
+      <c r="A47" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="49">
+        <v>3</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
+      <c r="A48" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="49">
+        <v>3</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="55">
+        <v>9</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="55">
+        <v>9</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75">
+      <c r="A51" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="50">
+        <v>2</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75">
+      <c r="A52" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="48">
+        <v>7</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75">
+      <c r="A53" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="50">
+        <v>2</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75">
+      <c r="A54" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="52">
+        <v>4</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75">
+      <c r="A55" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="49">
+        <v>3</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="A56" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="49">
+        <v>3</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
+      <c r="A57" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="49">
+        <v>3</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75">
+      <c r="A58" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="50">
+        <v>2</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
+      <c r="A59" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="50">
+        <v>2</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75">
+      <c r="A60" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="50">
+        <v>2</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75">
+      <c r="A61" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="C61" s="50">
+        <v>2</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75">
+      <c r="A62" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="54">
+        <v>6</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75">
+      <c r="A63" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="54">
+        <v>6</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75">
+      <c r="A64" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>984</v>
+      </c>
+      <c r="C64" s="51">
+        <v>5</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75">
+      <c r="A65" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="49">
+        <v>3</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75">
+      <c r="A66" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="49">
+        <v>3</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75">
+      <c r="A67" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="50">
+        <v>2</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75">
+      <c r="A68" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="49">
+        <v>3</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75">
+      <c r="A69" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="49">
+        <v>3</v>
+      </c>
+      <c r="D69" s="39"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75">
+      <c r="A70" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="50">
+        <v>2</v>
+      </c>
+      <c r="D70" s="39"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75">
+      <c r="A71" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="48">
+        <v>7</v>
+      </c>
+      <c r="D71" s="39"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75">
+      <c r="A72" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="48">
+        <v>7</v>
+      </c>
+      <c r="D72" s="39"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75">
+      <c r="A73" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="51">
+        <v>5</v>
+      </c>
+      <c r="D73" s="39"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75">
+      <c r="A74" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="50">
+        <v>2</v>
+      </c>
+      <c r="D74" s="39"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75">
+      <c r="A75" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" s="53">
+        <v>8</v>
+      </c>
+      <c r="D75" s="39"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75">
+      <c r="A76" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="51">
+        <v>5</v>
+      </c>
+      <c r="D76" s="39"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75">
+      <c r="A77" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="52">
+        <v>4</v>
+      </c>
+      <c r="D77" s="39"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75">
+      <c r="A78" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="52">
+        <v>4</v>
+      </c>
+      <c r="D78" s="39"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75">
+      <c r="A79" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="49">
+        <v>3</v>
+      </c>
+      <c r="D79" s="39"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75">
+      <c r="A80" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="50">
+        <v>2</v>
+      </c>
+      <c r="D80" s="39"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75">
+      <c r="A81" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="50">
+        <v>2</v>
+      </c>
+      <c r="D81" s="39"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75">
+      <c r="A82" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="56">
+        <v>3</v>
+      </c>
+      <c r="D82" s="39"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75">
+      <c r="A83" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="57">
+        <v>2</v>
+      </c>
+      <c r="D83" s="39"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75">
+      <c r="A84" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="58">
+        <v>6</v>
+      </c>
+      <c r="D84" s="39"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75">
+      <c r="A85" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="57">
+        <v>2</v>
+      </c>
+      <c r="D85" s="39"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75">
+      <c r="A86" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="59">
+        <v>10</v>
+      </c>
+      <c r="D86" s="39"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.75">
+      <c r="A87" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="60">
+        <v>9</v>
+      </c>
+      <c r="D87" s="39"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75">
+      <c r="A88" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="61">
+        <v>8</v>
+      </c>
+      <c r="D88" s="39"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75">
+      <c r="A89" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="62">
+        <v>5</v>
+      </c>
+      <c r="D89" s="39"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75">
+      <c r="A90" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="56">
+        <v>3</v>
+      </c>
+      <c r="D90" s="39"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75">
+      <c r="A91" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="56">
+        <v>3</v>
+      </c>
+      <c r="D91" s="39"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75">
+      <c r="A92" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="57">
+        <v>2</v>
+      </c>
+      <c r="D92" s="39"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75">
+      <c r="A93" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="60">
+        <v>9</v>
+      </c>
+      <c r="D93" s="39"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.75">
+      <c r="A94" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="62">
+        <v>5</v>
+      </c>
+      <c r="D94" s="39"/>
+    </row>
+    <row r="95" spans="1:4" ht="15.75">
+      <c r="A95" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="56">
+        <v>3</v>
+      </c>
+      <c r="D95" s="39"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75">
+      <c r="A96" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="57">
+        <v>2</v>
+      </c>
+      <c r="D96" s="39"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.75">
+      <c r="A97" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" s="57">
+        <v>2</v>
+      </c>
+      <c r="D97" s="39"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75">
+      <c r="A98" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="61">
+        <v>8</v>
+      </c>
+      <c r="D98" s="39"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75">
+      <c r="A99" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="58">
+        <v>6</v>
+      </c>
+      <c r="D99" s="39"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75">
+      <c r="A100" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C100" s="56">
+        <v>3</v>
+      </c>
+      <c r="D100" s="39"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.75">
+      <c r="A101" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="60">
+        <v>9</v>
+      </c>
+      <c r="D101" s="39"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.75">
+      <c r="A102" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" s="60">
+        <v>9</v>
+      </c>
+      <c r="D102" s="39"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75">
+      <c r="A103" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="56">
+        <v>3</v>
+      </c>
+      <c r="D103" s="39"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.75">
+      <c r="A104" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="57">
+        <v>2</v>
+      </c>
+      <c r="D104" s="39"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75">
+      <c r="A105" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105" s="57">
+        <v>2</v>
+      </c>
+      <c r="D105" s="39"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75">
+      <c r="A106" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="62">
+        <v>5</v>
+      </c>
+      <c r="D106" s="39"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75">
+      <c r="A107" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="63">
+        <v>4</v>
+      </c>
+      <c r="D107" s="39"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75">
+      <c r="A108" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="56">
+        <v>3</v>
+      </c>
+      <c r="D108" s="39"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.75">
+      <c r="A109" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="57">
+        <v>2</v>
+      </c>
+      <c r="D109" s="39"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.75">
+      <c r="A110" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" s="57">
+        <v>2</v>
+      </c>
+      <c r="D110" s="39"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75">
+      <c r="A111" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" s="56">
+        <v>3</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75">
+      <c r="A112" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C112" s="62">
+        <v>5</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75">
+      <c r="A113" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C113" s="57">
+        <v>2</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75">
+      <c r="A114" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C114" s="57">
+        <v>2</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75">
+      <c r="A115" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" s="56">
+        <v>3</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75">
+      <c r="A116" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C116" s="56">
+        <v>3</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75">
+      <c r="A117" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="57">
+        <v>2</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75">
+      <c r="A118" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C118" s="57">
+        <v>2</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75">
+      <c r="A119" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C119" s="56">
+        <v>3</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75">
+      <c r="A120" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" s="57">
+        <v>2</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75">
+      <c r="A121" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C121" s="57">
+        <v>2</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75">
+      <c r="A122" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C122" s="57">
+        <v>2</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75">
+      <c r="A123" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C123" s="57">
+        <v>2</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75">
+      <c r="A124" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124" s="56">
+        <v>3</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75">
+      <c r="A125" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125" s="57">
+        <v>2</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75">
+      <c r="A126" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="57">
+        <v>2</v>
+      </c>
+      <c r="D126" s="39"/>
+    </row>
+    <row r="127" spans="1:4" ht="15.75">
+      <c r="A127" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C127" s="57">
+        <v>2</v>
+      </c>
+      <c r="D127" s="39"/>
+    </row>
+    <row r="128" spans="1:4" ht="15.75">
+      <c r="A128" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128" s="63">
+        <v>4</v>
+      </c>
+      <c r="D128" s="39"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75">
+      <c r="A129" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" s="57">
+        <v>2</v>
+      </c>
+      <c r="D129" s="39"/>
+    </row>
+    <row r="130" spans="1:4" ht="15.75">
+      <c r="A130" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C130" s="63">
+        <v>4</v>
+      </c>
+      <c r="D130" s="39"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.75">
+      <c r="A131" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="C131" s="56">
+        <v>3</v>
+      </c>
+      <c r="D131" s="39"/>
+    </row>
+    <row r="132" spans="1:4" ht="15.75">
+      <c r="A132" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" s="62">
+        <v>5</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75">
+      <c r="A133" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C133" s="58">
+        <v>6</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75">
+      <c r="A134" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C134" s="63">
+        <v>4</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75">
+      <c r="A135" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="C135" s="57">
+        <v>2</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75">
+      <c r="A136" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="C136" s="56">
+        <v>3</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75">
+      <c r="A137" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" s="59">
+        <v>10</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75">
+      <c r="A138" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" s="56">
+        <v>3</v>
+      </c>
+      <c r="D138" s="36" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75">
+      <c r="A139" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C139" s="64">
+        <v>18</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75">
+      <c r="A140" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C140" s="57">
+        <v>2</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75">
+      <c r="A141" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141" s="65">
+        <v>14</v>
+      </c>
+      <c r="D141" s="39"/>
+    </row>
+    <row r="142" spans="1:4" ht="15.75">
+      <c r="A142" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="C142" s="59">
+        <v>10</v>
+      </c>
+      <c r="D142" s="39"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.75">
+      <c r="A143" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" s="58">
+        <v>6</v>
+      </c>
+      <c r="D143" s="39"/>
+    </row>
+    <row r="144" spans="1:4" ht="15.75">
+      <c r="A144" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="62">
+        <v>5</v>
+      </c>
+      <c r="D144" s="39"/>
+    </row>
+    <row r="145" spans="1:4" ht="15.75">
+      <c r="A145" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C145" s="59">
+        <v>10</v>
+      </c>
+      <c r="D145" s="39"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.75">
+      <c r="A146" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="C146" s="57">
+        <v>2</v>
+      </c>
+      <c r="D146" s="39"/>
+    </row>
+    <row r="147" spans="1:4" ht="15.75">
+      <c r="A147" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="C147" s="57">
+        <v>2</v>
+      </c>
+      <c r="D147" s="39"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>